--- a/results/2018年第3季.xlsx
+++ b/results/2018年第3季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,22 +590,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>15,161,616</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,916,997</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,729,342</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,633,636</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -902,22 +902,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>17,274,672</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,205,744</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,875,153</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,593,845</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -980,22 +980,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>11,036,833</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,844,077</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,537,822</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,403,078</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1058,22 +1058,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>583,335</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>353,726</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>234,416</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>194,289</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>94,637</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,697,479</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>16,604,109</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,679,861</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>992,931</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>880,873</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1176,17 +1176,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>28,994,356</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1214,22 +1214,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,143</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,092</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-43,788</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-123,516</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1292,22 +1292,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,065,623</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,040,523</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>429,251</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>697,889</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,921,416</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>236,924</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>33,103</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>63,655</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1448,22 +1448,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,314,390</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,727,779</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,265,654</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,710,023</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2540,22 +2540,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,566,964</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>639,584</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>150,703</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>130,102</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2580,17 +2580,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,098,150</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3788,22 +3788,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>436,742</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>89,137</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>42,795</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>29,928</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4568,22 +4568,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>24,374,586</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>14,366,094</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,434,071</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>12,872,085</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4646,22 +4646,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>695,262</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>161,907</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>83,846</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,252</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4802,22 +4802,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,986,893</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>413,260</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>276,712</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>197,636</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4880,22 +4880,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,777,628</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,569,943</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>458,823</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>229,135</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4958,22 +4958,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,578,778</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>373,076</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>29,756</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,035,412</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5192,22 +5192,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>27,543,701</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,901,646</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,747,923</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>442,955</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5270,22 +5270,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>52,704,885</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>18,273,416</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>10,416,730</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>8,722,276</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5348,27 +5348,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,584,193</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>520,827</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-18,777</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>21,665</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-134,865</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -6674,12 +6674,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>104,581,292</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,944,132</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7754,6 +7754,552 @@
       <c r="P94" t="inlineStr">
         <is>
           <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>260</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>102,682,729</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>13,278,482</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2,106,899</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3,597,894</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>4,450,717</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1,608,916</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-12,017,988</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3,863,634</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>181,902,512</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>16,254,478</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>358,110,581</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>39,672,646</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4,935,877</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,128,452</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,305,187</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3,634,804</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-1,190,701</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-5,651,419</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2,772,862</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>78,437,664</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>20,227,466</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>116,476,381</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>12,359,655</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,760,346</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,906,409</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,713,223</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>4,519,050</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-30,524</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-4,425,597</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>4,326,153</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>14,178,617</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,789,585</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>42,286,463</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>52</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13,627,857</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1,735,051</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-71,895</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>132,235</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-2,274,956</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-725,321</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-2,464,324</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-2,465,487</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>14,126,548</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,047,767</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>38,651,731</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>175,247</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>65,026</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>17,204</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>18,749</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>36,470</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-44,174</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-47,253</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>35,574</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>361,738</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>8,745</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,065,072</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,972,862</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>280,545</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>102,179</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>82,469</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-131,415</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-19,415</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>57,279</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-141,428</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>4,150,669</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>860,169</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>6,468,871</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>248,142</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>183,531</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-26,079</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-58,283</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-61,236</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>5,313</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-61,407</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>196,777</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-5.15</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-4.41</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>18,566</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,299,462</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.53</t>
         </is>
       </c>
     </row>
